--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/10/seed5/result_data_KNN.xlsx
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.592</v>
+        <v>13.191</v>
       </c>
     </row>
     <row r="9">
@@ -641,10 +641,10 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.952</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>12.654</v>
+        <v>13.004</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>14.314</v>
+        <v>13.072</v>
       </c>
     </row>
     <row r="15">
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.366</v>
+        <v>13.126</v>
       </c>
     </row>
     <row r="23">
